--- a/docs/PTA2_DDC_100/PTA2_DDC_100_13.08.2024_output.xlsx
+++ b/docs/PTA2_DDC_100/PTA2_DDC_100_13.08.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L85"/>
+  <dimension ref="A1:N85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731784122.0668302</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731784124.675675</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731784122.0668302.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731784124.675675.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>280.98</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>280.6</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.3799999999999955</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731784126.8393457</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731784128.0553527</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731784126.8393457.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731784128.0553527.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>279.8</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>280.27</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.4699999999999704</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -643,95 +671,107 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731784128.7924488</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>./test_images/SBERP1731784128.7924488.png</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
+          <t>./test_images/SBERP1731784128.7924488.png</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>280.5</v>
       </c>
-      <c r="J5" t="n">
-        <v>280.5</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>282.9</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-2.399999999999977</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731784136.4147403</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731784138.5769832</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731784136.4147403.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731784138.5769832.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>280.98</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>280.6</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.3799999999999955</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -739,51 +779,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731784140.2784033</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731784141.2298567</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731784140.2784033.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731784141.2298567.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>279.8</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>280.27</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.4699999999999704</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -791,51 +837,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731784141.8123264</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731784146.925913</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731784141.8123264.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731784146.925913.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>280.5</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>281.5</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-1</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>-0.36</v>
       </c>
     </row>
@@ -843,51 +895,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731784150.3475037</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731784151.3062027</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731784150.3475037.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731784151.3062027.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>281.97</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>281.53</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.4400000000000546</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -895,51 +953,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731784152.4277766</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731784154.920733</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731784152.4277766.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731784154.920733.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>281.33</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>281.11</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-0.2199999999999704</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -947,51 +1011,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731784155.5968604</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731784157.5098681</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731784155.5968604.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731784157.5098681.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>281.69</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>281.38</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.3100000000000023</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -999,95 +1069,107 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731784158.4028625</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731784158.4028625.png</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731784158.4028625.png</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>281.95</v>
       </c>
-      <c r="J12" t="n">
-        <v>281.95</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>283.49</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-1.54000000000002</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.5499999999999999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731784163.5507824</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731784166.1793299</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731784163.5507824.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731784166.1793299.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>129.93</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>129.69</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.2400000000000091</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -1095,51 +1177,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731784170.8263936</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731784172.243414</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731784170.8263936.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731784172.243414.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>130.2</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>129.93</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.2699999999999818</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -1147,51 +1235,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731784174.0910878</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731784174.4526455</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731784174.0910878.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731784174.4526455.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>130.51</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>130.2</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.3100000000000023</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -1199,95 +1293,107 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731784175.1033502</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731784175.1033502.png</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731784175.1033502.png</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>129.94</v>
       </c>
-      <c r="J16" t="n">
-        <v>129.94</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>129.99</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.05000000000001137</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731784176.5264692</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731784178.4745774</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731784176.5264692.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731784178.4745774.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>6437</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>6441.5</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>4.5</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -1295,51 +1401,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731784180.2180078</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731784181.337384</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731784180.2180078.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731784181.337384.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>6448.5</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>6434.5</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>14</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -1347,51 +1459,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731784183.292505</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731784185.127758</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731784183.292505.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731784185.127758.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>6421</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>6433</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>12</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -1399,51 +1517,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731784185.5540862</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731784190.4352036</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731784185.5540862.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731784190.4352036.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>6435.5</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>6442</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>-6.5</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -1451,51 +1575,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731784193.8848689</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731784196.8407054</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731784193.8848689.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731784196.8407054.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>502.95</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>502.7</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.25</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -1503,51 +1633,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731784198.465347</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731784199.6182847</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731784198.465347.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731784199.6182847.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>501.7</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>503</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>1.300000000000011</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -1555,51 +1691,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731784202.6694279</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731784202.8666956</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731784202.6694279.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731784202.8666956.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>502.2</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>503</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.8000000000000114</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -1607,51 +1749,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731784203.2021725</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731784204.119294</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731784203.2021725.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731784204.119294.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>503.9</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>503</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.8999999999999773</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -1659,51 +1807,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731784204.1342423</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731784204.1741438</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731784204.1342423.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731784204.1741438.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>503</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>503.3</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.3000000000000114</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -1711,51 +1865,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731784207.0784688</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731784210.5572555</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731784207.0784688.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731784210.5572555.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>227.17</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>227.24</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.0700000000000216</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -1763,51 +1923,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731784212.5736723</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731784215.2867584</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731784212.5736723.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731784215.2867584.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>226.55</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>226.58</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.03000000000000114</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -1815,51 +1981,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731784216.91591</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731784217.8266127</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731784216.91591.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731784217.8266127.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>225.75</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>226.14</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.3899999999999864</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -1867,95 +2039,107 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731784218.8827636</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1731784218.8827636.png</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
+          <t>./test_images/MOEX1731784218.8827636.png</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>226.58</v>
       </c>
-      <c r="J29" t="n">
-        <v>226.58</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>226.9</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-0.3199999999999932</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731784221.8675864</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731784223.7138274</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731784221.8675864.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731784223.7138274.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>1033</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>1036.2</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>3.200000000000045</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -1963,51 +2147,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731784224.6983588</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731784228.1278708</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731784224.6983588.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731784228.1278708.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>1041</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>1042.6</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-1.599999999999909</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -2015,51 +2205,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731784228.3499434</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731784229.0777433</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731784228.3499434.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731784229.0777433.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>1038.6</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>1043.6</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>5</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0.48</v>
       </c>
     </row>
@@ -2067,51 +2263,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731784230.2501056</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731784233.5834308</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731784230.2501056.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731784233.5834308.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>1049.6</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>1051.8</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>-2.200000000000045</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>-0.21</v>
       </c>
     </row>
@@ -2119,51 +2321,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731784237.1493044</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731784241.6224384</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/CNY1731784237.1493044.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/CNY1731784241.6224384.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>12.119</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>12.166</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>-0.0470000000000006</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>-0.39</v>
       </c>
     </row>
@@ -2171,51 +2379,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731784242.0322146</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731784243.2896278</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/CNY1731784242.0322146.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/CNY1731784243.2896278.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>12.147</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>12.166</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.01900000000000013</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -2223,51 +2437,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731784247.206334</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731784247.4616432</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/CNY1731784247.206334.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/CNY1731784247.4616432.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>12.139</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>12.164</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.02500000000000036</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -2275,95 +2495,107 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731784248.5821154</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731784248.5821154.png</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
+          <t>./test_images/CNY1731784248.5821154.png</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>12.184</v>
       </c>
-      <c r="J37" t="n">
-        <v>12.184</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>12.174</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.009999999999999787</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731784253.3867624</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731784261.074435</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731784253.3867624.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731784261.074435.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>126.34</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>128.84</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>-2.5</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>-1.98</v>
       </c>
     </row>
@@ -2371,51 +2603,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731784262.2223828</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731784262.35484</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731784262.2223828.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731784262.35484.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>128.66</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>129</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.3400000000000034</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -2423,95 +2661,107 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731784264.4331932</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731784264.4331932.png</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731784264.4331932.png</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>128.52</v>
       </c>
-      <c r="J40" t="n">
-        <v>128.52</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>128</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-0.5200000000000102</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.4</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731784267.6668649</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731784271.7096276</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731784267.6668649.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731784271.7096276.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>163.68</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>164.86</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>-1.180000000000007</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>-0.72</v>
       </c>
     </row>
@@ -2519,51 +2769,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731784272.7914696</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731784274.2304173</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731784272.7914696.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731784274.2304173.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>164.76</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>164.92</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.1599999999999966</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -2571,51 +2827,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731784274.8934727</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731784278.8237631</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731784274.8934727.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731784278.8237631.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>165.32</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>165.2</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.1200000000000045</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -2623,51 +2885,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731784282.8444939</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731784284.9371307</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731784282.8444939.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731784284.9371307.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>50.385</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>50.2</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.1849999999999952</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -2675,51 +2943,57 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731784286.7319083</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731784288.8609874</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731784286.7319083.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731784288.8609874.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>50.18</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>50.16</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>-0.02000000000000313</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -2727,51 +3001,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731784290.4310048</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731784292.1912744</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731784290.4310048.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731784292.1912744.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>50.17</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>50.155</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.01500000000000057</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -2779,51 +3059,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731784292.4379356</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731784292.6239853</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731784292.4379356.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731784292.6239853.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>50.21</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>50.15</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.06000000000000227</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -2831,95 +3117,107 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731784293.0187075</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731784293.0187075.png</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731784293.0187075.png</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>50.085</v>
       </c>
-      <c r="J48" t="n">
-        <v>50.085</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0</v>
-      </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>50.055</v>
+      </c>
+      <c r="M48" t="n">
+        <v>-0.03000000000000114</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731784299.6602435</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731784303.4598663</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731784299.6602435.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731784303.4598663.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>1400</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>1397.8</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>-2.200000000000045</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -2927,51 +3225,57 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731784304.7585497</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731784306.0329552</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731784304.7585497.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731784306.0329552.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>1401.4</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>1397.4</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>4</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -2979,51 +3283,57 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731784307.708273</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731784308.1050613</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731784307.708273.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731784308.1050613.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>1402.2</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>1400</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>2.200000000000045</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -3031,95 +3341,107 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731784308.2698536</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731784308.2698536.png</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731784308.2698536.png</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>1397</v>
       </c>
-      <c r="J52" t="n">
-        <v>1397</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0</v>
-      </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>1397.8</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.7999999999999545</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731784310.907951</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731784312.2190933</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731784310.907951.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731784312.2190933.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>59.89</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>59.75</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.1400000000000006</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -3127,51 +3449,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731784313.238124</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731784313.5081828</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731784313.238124.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731784313.5081828.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>59.57</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>59.78</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.2100000000000009</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -3179,51 +3507,57 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731784313.745213</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731784316.5068555</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731784313.745213.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731784316.5068555.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>59.94</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>59.86</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.07999999999999829</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -3231,51 +3565,57 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731784317.2542746</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731784318.488035</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731784317.2542746.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731784318.488035.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>59.66</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>59.86</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.2000000000000028</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -3283,51 +3623,57 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731784319.9891644</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731784320.698689</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731784319.9891644.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731784320.698689.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>60.03</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>59.81</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.2199999999999989</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -3335,51 +3681,57 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731784321.6334772</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731784322.6339326</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731784321.6334772.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731784322.6339326.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>59.71</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>59.86</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0.1499999999999986</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -3387,95 +3739,107 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731784323.9151793</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731784323.9151793.png</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731784323.9151793.png</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>59.69</v>
       </c>
-      <c r="J59" t="n">
-        <v>59.69</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0</v>
-      </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>59.57</v>
+      </c>
+      <c r="M59" t="n">
+        <v>-0.1199999999999974</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731784325.7346334</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731784328.1382864</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731784325.7346334.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731784328.1382864.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>99.25</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>99.13</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.1200000000000045</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -3483,51 +3847,57 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731784328.8881612</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731784331.5777462</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731784328.8881612.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731784331.5777462.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>99.56</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>99.53</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>0.03000000000000114</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -3535,51 +3905,57 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731784331.9924529</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731784332.3630826</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731784331.9924529.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731784332.3630826.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>99.42</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>99.61</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>0.1899999999999977</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -3587,51 +3963,57 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731784335.6015446</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731784339.7912886</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731784335.6015446.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731784339.7912886.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>99.73999999999999</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>100.22</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>-0.480000000000004</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>-0.48</v>
       </c>
     </row>
@@ -3639,51 +4021,57 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731784340.8266542</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731784342.405549</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/SELG1731784340.8266542.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/SELG1731784342.405549.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>56</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>56.38</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>0.3800000000000026</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>0.6799999999999999</v>
       </c>
     </row>
@@ -3691,51 +4079,57 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731784344.421765</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731784349.1002827</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/SELG1731784344.421765.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/SELG1731784349.1002827.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>56.45</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>56.4</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>0.05000000000000426</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -3743,51 +4137,57 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731784349.5056791</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731784351.7209606</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/SELG1731784349.5056791.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/SELG1731784351.7209606.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>56.55</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>56.61</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>-0.06000000000000227</v>
       </c>
-      <c r="L66" t="n">
+      <c r="N66" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -3795,51 +4195,57 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731784354.8918684</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731784356.265596</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731784354.8918684.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731784356.265596.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>154.82</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>154.5</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>0.3199999999999932</v>
       </c>
-      <c r="L67" t="n">
+      <c r="N67" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -3847,51 +4253,57 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731784357.1375444</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731784357.35484</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731784357.1375444.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731784357.35484.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>155</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>154.56</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>0.4399999999999977</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -3899,51 +4311,57 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731784357.7286227</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731784358.0249317</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731784357.7286227.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731784358.0249317.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>155.48</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>155.32</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>0.1599999999999966</v>
       </c>
-      <c r="L69" t="n">
+      <c r="N69" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -3951,51 +4369,57 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731784360.0270584</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731784363.0625217</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731784360.0270584.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731784363.0625217.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>156.7</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>157.1</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>-0.4000000000000057</v>
       </c>
-      <c r="L70" t="n">
+      <c r="N70" t="n">
         <v>-0.26</v>
       </c>
     </row>
@@ -4003,95 +4427,107 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731784364.4863505</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731784364.4863505.png</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731784364.4863505.png</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>156.32</v>
       </c>
-      <c r="J71" t="n">
-        <v>156.32</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0</v>
-      </c>
       <c r="L71" t="n">
-        <v>0</v>
+        <v>157.12</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.8000000000000114</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.51</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731784377.3990629</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731784378.7364178</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731784377.3990629.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731784378.7364178.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>20.544</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>20.375</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>0.1690000000000005</v>
       </c>
-      <c r="L72" t="n">
+      <c r="N72" t="n">
         <v>0.8200000000000001</v>
       </c>
     </row>
@@ -4099,51 +4535,57 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731784380.793011</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731784382.44826</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731784380.793011.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731784382.44826.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>20.55</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>20.501</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>0.04899999999999949</v>
       </c>
-      <c r="L73" t="n">
+      <c r="N73" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -4151,51 +4593,57 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731784384.0594838</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731784385.6322193</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731784384.0594838.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731784385.6322193.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>20.48</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>20.552</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>0.07199999999999918</v>
       </c>
-      <c r="L74" t="n">
+      <c r="N74" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -4203,51 +4651,57 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731784390.6606207</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731784391.3825371</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731784390.6606207.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731784391.3825371.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>20.568</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>20.534</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>0.03400000000000247</v>
       </c>
-      <c r="L75" t="n">
+      <c r="N75" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -4255,43 +4709,49 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731784392.5579302</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731784392.5579302.png</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731784392.5579302.png</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>20.476</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>20.476</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>0</v>
       </c>
-      <c r="L76" t="n">
+      <c r="N76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4299,51 +4759,57 @@
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731784394.7802496</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731784396.9331615</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731784394.7802496.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731784396.9331615.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>690</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>687.4</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>2.600000000000023</v>
       </c>
-      <c r="L77" t="n">
+      <c r="N77" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -4351,51 +4817,57 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731784397.8464322</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731784400.7218506</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731784397.8464322.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731784400.7218506.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>686.5</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>687</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>0.5</v>
       </c>
-      <c r="L78" t="n">
+      <c r="N78" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -4403,51 +4875,57 @@
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731784401.6347475</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731784403.6812491</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731784401.6347475.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731784403.6812491.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>684.7</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>685.7</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>1</v>
       </c>
-      <c r="L79" t="n">
+      <c r="N79" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -4455,95 +4933,107 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731784403.7474742</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731784403.7474742.png</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1731784403.7474742.png</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>686.9</v>
       </c>
-      <c r="J80" t="n">
-        <v>686.9</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0</v>
-      </c>
       <c r="L80" t="n">
-        <v>0</v>
+        <v>686.45</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.4499999999999318</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731784405.7527115</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731784407.1477938</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731784405.7527115.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731784407.1477938.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>153.53</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>154.26</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>0.7299999999999898</v>
       </c>
-      <c r="L81" t="n">
+      <c r="N81" t="n">
         <v>0.48</v>
       </c>
     </row>
@@ -4551,51 +5041,57 @@
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731784407.7678013</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731784411.962933</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731784407.7678013.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731784411.962933.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>154.82</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>156.08</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>-1.260000000000019</v>
       </c>
-      <c r="L82" t="n">
+      <c r="N82" t="n">
         <v>-0.8099999999999999</v>
       </c>
     </row>
@@ -4603,51 +5099,57 @@
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731784413.3132255</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1731784413.7022302</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731784413.3132255.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731784413.7022302.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>156.16</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>156.37</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>0.210000000000008</v>
       </c>
-      <c r="L83" t="n">
+      <c r="N83" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -4655,51 +5157,57 @@
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731784416.2735772</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731784417.6188467</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731784416.2735772.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731784417.6188467.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>156.83</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>156.83</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>0</v>
       </c>
-      <c r="L84" t="n">
+      <c r="N84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4707,44 +5215,50 @@
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731784418.9371412</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731784418.9371412.png</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
+          <t>./test_images/MTLR1731784418.9371412.png</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>156.08</v>
       </c>
-      <c r="J85" t="n">
-        <v>156.08</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0</v>
-      </c>
       <c r="L85" t="n">
-        <v>0</v>
+        <v>156.16</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.07999999999998408</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
@@ -4805,19 +5319,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.8800000000000026</v>
       </c>
       <c r="C2" t="n">
         <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.1257142857142861</v>
       </c>
       <c r="E2" t="n">
-        <v>1.67</v>
+        <v>1.47</v>
       </c>
       <c r="F2" t="n">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="3">
@@ -4827,19 +5341,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3800000000000523</v>
+        <v>-1.159999999999968</v>
       </c>
       <c r="C3" t="n">
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05428571428572176</v>
+        <v>-0.1657142857142812</v>
       </c>
       <c r="E3" t="n">
-        <v>0.14</v>
+        <v>-0.41</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="4">
@@ -4871,19 +5385,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2399999999999949</v>
+        <v>0.2099999999999937</v>
       </c>
       <c r="C5" t="n">
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04799999999999897</v>
+        <v>0.04199999999999875</v>
       </c>
       <c r="E5" t="n">
-        <v>0.48</v>
+        <v>0.42</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="6">
@@ -4893,19 +5407,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.3200000000000216</v>
+        <v>-0.2400000000000375</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.06400000000000432</v>
+        <v>-0.0480000000000075</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.2</v>
+        <v>-0.15</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.04</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="7">
@@ -4937,19 +5451,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5199999999999818</v>
+        <v>1.319999999999993</v>
       </c>
       <c r="C8" t="n">
         <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1039999999999964</v>
+        <v>0.2639999999999986</v>
       </c>
       <c r="E8" t="n">
-        <v>0.33</v>
+        <v>0.84</v>
       </c>
       <c r="F8" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="9">
@@ -4959,19 +5473,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.100000000000023</v>
+        <v>4.549999999999955</v>
       </c>
       <c r="C9" t="n">
         <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>1.025000000000006</v>
+        <v>1.137499999999989</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="10">
@@ -4981,19 +5495,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>4.799999999999955</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>1.199999999999989</v>
       </c>
       <c r="E10" t="n">
-        <v>0.29</v>
+        <v>0.35</v>
       </c>
       <c r="F10" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="11">
@@ -5003,19 +5517,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.003000000000000114</v>
+        <v>0.006999999999999673</v>
       </c>
       <c r="C11" t="n">
         <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.0007500000000000284</v>
+        <v>0.001749999999999918</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.01999999999999996</v>
+        <v>0.06000000000000004</v>
       </c>
       <c r="F11" t="n">
-        <v>-0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="12">
@@ -5025,19 +5539,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8199999999999932</v>
+        <v>0.8700000000000045</v>
       </c>
       <c r="C12" t="n">
         <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2049999999999983</v>
+        <v>0.2175000000000011</v>
       </c>
       <c r="E12" t="n">
-        <v>0.63</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="13">
@@ -5091,19 +5605,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4900000000000091</v>
+        <v>0.1700000000000159</v>
       </c>
       <c r="C15" t="n">
         <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1225000000000023</v>
+        <v>0.04250000000000398</v>
       </c>
       <c r="E15" t="n">
-        <v>0.21</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="16">
@@ -5179,19 +5693,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.8499999999999659</v>
+        <v>-1.550000000000011</v>
       </c>
       <c r="C19" t="n">
         <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2833333333333219</v>
+        <v>-0.5166666666666705</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3099999999999999</v>
+        <v>-0.55</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1</v>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="20">
@@ -5201,19 +5715,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-2.159999999999997</v>
+        <v>-2.680000000000007</v>
       </c>
       <c r="C20" t="n">
         <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.7199999999999989</v>
+        <v>-0.8933333333333356</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.72</v>
+        <v>-2.12</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.57</v>
+        <v>-0.71</v>
       </c>
     </row>
     <row r="21">
